--- a/input/suh-section-3.2.xlsx
+++ b/input/suh-section-3.2.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akey/Projects/enterprise-tiny-lca/tiny-lca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akey/Projects/enterprise-tiny-lca/tiny-lca/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8704AF-EB10-AC43-AA29-59403F3B9C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A55EA30-946C-7F47-ABFE-8D7B432AE0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="14040" windowWidth="51200" windowHeight="13740" activeTab="2" xr2:uid="{8991C5ED-B913-1749-A094-A9D4530EAFAF}"/>
   </bookViews>
   <sheets>
     <sheet name="direct requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="CO2 Emission" sheetId="2" r:id="rId2"/>
+    <sheet name="CO2 emission" sheetId="2" r:id="rId2"/>
     <sheet name="functional unit" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Production of Steel</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Waste (kg waste)</t>
+  </si>
+  <si>
+    <t>Use of toaster</t>
   </si>
 </sst>
 </file>
@@ -605,28 +608,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6626D4A-7A59-3645-BAF6-39B093B4DF20}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -634,7 +635,7 @@
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -642,17 +643,25 @@
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0</v>
       </c>
     </row>
